--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>75.40170750325734</v>
+        <v>75.92737354118466</v>
       </c>
       <c r="R2">
-        <v>678.615367529316</v>
+        <v>683.346361870662</v>
       </c>
       <c r="S2">
-        <v>0.004991858119829724</v>
+        <v>0.005858992042618862</v>
       </c>
       <c r="T2">
-        <v>0.004991858119829724</v>
+        <v>0.005858992042618862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>86.4764551270089</v>
+        <v>126.6369783078867</v>
       </c>
       <c r="R3">
-        <v>778.28809614308</v>
+        <v>1139.73280477098</v>
       </c>
       <c r="S3">
-        <v>0.005725045347032782</v>
+        <v>0.009772036271012948</v>
       </c>
       <c r="T3">
-        <v>0.005725045347032782</v>
+        <v>0.009772036271012948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>9.606820206574222</v>
+        <v>13.71176749813267</v>
       </c>
       <c r="R4">
-        <v>86.461381859168</v>
+        <v>123.405907483194</v>
       </c>
       <c r="S4">
-        <v>0.0006360052715233288</v>
+        <v>0.00105807869961711</v>
       </c>
       <c r="T4">
-        <v>0.0006360052715233289</v>
+        <v>0.00105807869961711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>5.806840071187556</v>
+        <v>2.786436093802666</v>
       </c>
       <c r="R5">
-        <v>52.261560640688</v>
+        <v>25.077924844224</v>
       </c>
       <c r="S5">
-        <v>0.0003844332273066626</v>
+        <v>0.0002150174059688814</v>
       </c>
       <c r="T5">
-        <v>0.0003844332273066626</v>
+        <v>0.0002150174059688814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>6186.601944841056</v>
+        <v>4254.090350756108</v>
       </c>
       <c r="R6">
-        <v>55679.41750356951</v>
+        <v>38286.81315680497</v>
       </c>
       <c r="S6">
-        <v>0.4095747984377551</v>
+        <v>0.328270034260332</v>
       </c>
       <c r="T6">
-        <v>0.4095747984377552</v>
+        <v>0.328270034260332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>7095.269101811811</v>
+        <v>7095.26910181181</v>
       </c>
       <c r="R7">
         <v>63857.4219163063</v>
       </c>
       <c r="S7">
-        <v>0.4697317587499749</v>
+        <v>0.5475116979412674</v>
       </c>
       <c r="T7">
-        <v>0.4697317587499749</v>
+        <v>0.5475116979412673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>788.2258179784976</v>
+        <v>768.2485918464878</v>
       </c>
       <c r="R8">
-        <v>7094.032361806479</v>
+        <v>6914.237326618389</v>
       </c>
       <c r="S8">
-        <v>0.05218332024596938</v>
+        <v>0.05928247187346984</v>
       </c>
       <c r="T8">
-        <v>0.0521833202459694</v>
+        <v>0.05928247187346983</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>476.4428985409644</v>
+        <v>156.1195962246044</v>
       </c>
       <c r="R9">
-        <v>4287.98608686868</v>
+        <v>1405.07636602144</v>
       </c>
       <c r="S9">
-        <v>0.03154219487157077</v>
+        <v>0.01204708432961496</v>
       </c>
       <c r="T9">
-        <v>0.03154219487157077</v>
+        <v>0.01204708432961495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>95.95770285147668</v>
+        <v>97.1509646370689</v>
       </c>
       <c r="R10">
-        <v>863.6193256632901</v>
+        <v>874.3586817336201</v>
       </c>
       <c r="S10">
-        <v>0.006352737278776594</v>
+        <v>0.00749672617652951</v>
       </c>
       <c r="T10">
-        <v>0.006352737278776595</v>
+        <v>0.007496726176529508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>110.0516455064111</v>
+        <v>162.0351663377556</v>
       </c>
       <c r="R11">
-        <v>990.4648095577002</v>
+        <v>1458.3164970398</v>
       </c>
       <c r="S11">
-        <v>0.007285805831360894</v>
+        <v>0.01250356368092172</v>
       </c>
       <c r="T11">
-        <v>0.007285805831360895</v>
+        <v>0.01250356368092172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>12.22582921865778</v>
+        <v>17.54454786454889</v>
       </c>
       <c r="R12">
-        <v>110.03246296792</v>
+        <v>157.90093078094</v>
       </c>
       <c r="S12">
-        <v>0.000809392875541603</v>
+        <v>0.001353838036738889</v>
       </c>
       <c r="T12">
-        <v>0.0008093928755416032</v>
+        <v>0.001353838036738889</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>7.389899413524445</v>
+        <v>3.565314349582222</v>
       </c>
       <c r="R13">
-        <v>66.50909472172</v>
+        <v>32.08782914624</v>
       </c>
       <c r="S13">
-        <v>0.0004892373211910792</v>
+        <v>0.0002751201237364856</v>
       </c>
       <c r="T13">
-        <v>0.0004892373211910793</v>
+        <v>0.0002751201237364855</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>66.12577830102067</v>
+        <v>64.479127788111</v>
       </c>
       <c r="R14">
-        <v>595.132004709186</v>
+        <v>580.3121500929991</v>
       </c>
       <c r="S14">
-        <v>0.00437775899607778</v>
+        <v>0.004975579675762517</v>
       </c>
       <c r="T14">
-        <v>0.004377758996077781</v>
+        <v>0.004975579675762516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>75.83810883513114</v>
+        <v>107.54279420169</v>
       </c>
       <c r="R15">
-        <v>682.5429795161801</v>
+        <v>967.8851478152101</v>
       </c>
       <c r="S15">
-        <v>0.005020749422217334</v>
+        <v>0.0082986194053838</v>
       </c>
       <c r="T15">
-        <v>0.005020749422217335</v>
+        <v>0.0082986194053838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>8.424987764769778</v>
+        <v>11.644322297457</v>
       </c>
       <c r="R16">
-        <v>75.82488988292801</v>
+        <v>104.798900677113</v>
       </c>
       <c r="S16">
-        <v>0.0005577638090120873</v>
+        <v>0.0008985427586993218</v>
       </c>
       <c r="T16">
-        <v>0.0005577638090120874</v>
+        <v>0.0008985427586993217</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>5.092481747316445</v>
+        <v>2.366300328672</v>
       </c>
       <c r="R17">
-        <v>45.832335725848</v>
+        <v>21.296702958048</v>
       </c>
       <c r="S17">
-        <v>0.0003371401948600179</v>
+        <v>0.0001825973183257213</v>
       </c>
       <c r="T17">
-        <v>0.000337140194860018</v>
+        <v>0.0001825973183257213</v>
       </c>
     </row>
   </sheetData>
